--- a/medicine/Enfance/Wiggins_et_Sherlock_contre_Napoléon/Wiggins_et_Sherlock_contre_Napoléon.xlsx
+++ b/medicine/Enfance/Wiggins_et_Sherlock_contre_Napoléon/Wiggins_et_Sherlock_contre_Napoléon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wiggins_et_Sherlock_contre_Napol%C3%A9on</t>
+          <t>Wiggins_et_Sherlock_contre_Napoléon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Wiggins et Sherlock contre Napoléon est un roman policier pour la jeunesse écrit par Béatrice Nicodème.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wiggins_et_Sherlock_contre_Napol%C3%A9on</t>
+          <t>Wiggins_et_Sherlock_contre_Napoléon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Wiggins
 Sherlock Holmes
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wiggins_et_Sherlock_contre_Napol%C3%A9on</t>
+          <t>Wiggins_et_Sherlock_contre_Napoléon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Wiggins est chargé par Sherlock Holmes de surveiller et de noter les déplacements d'un certain Robert Petticoat, fils cadet d'une noble famille, suspecté de participer à un complot anarchiste contre la Reine, complot organisé par un prince russe. Sherlock Holmes pour sa part est sur la piste d'un Napoléon du crime, à la tête de toute la pègre de Londres.
 Lors de sa filature, Wiggins rencontre Allan, un jeune Irlandais qui a tenté de lui voler un mouchoir. Ils deviennent rapidement amis et enquêtent a deux, ils tombe sur la piste d'un certain Moriarty qui est, selon eux, impliqué dans le vol d'un tableau à la National Gallery.
